--- a/pred_ohlcv/54_21/2019-10-30 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 WTC ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-21452.6484</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-23114.4642</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-21782.938</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-23175.8195</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-24118.8195</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-22105.724</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-22105.724</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-23806.0093</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-20273.0634</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-20273.0634</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-20159.7634</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-22032.7383</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-23141.1257</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-24489.5289</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-24526.1063</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-23993.4313</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-23993.4313</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-23254.0243</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-23254.0243</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-23270.1042</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-22783.7282</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-22877.9381</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-22984.19449999999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-24075.46589999999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-24056.72439999999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-24174.00089999999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-23833.94779999999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20729.02509999999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-26821.22509999999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4690.589199999991</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-6775.190099999991</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3064.582099999991</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3917.77270000001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1183.48610000001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>590.4861000000096</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2936.119503767502</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1881.119503767502</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-17118.8804962325</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-15718.8804962325</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-35718.88049623249</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-35541.01539623249</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-95789.66049623249</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-96319.61639623249</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-96354.0251962325</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-96459.0251962325</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-94240.2971962325</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-94240.2971962325</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-100421.6544962325</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-98465.19029623247</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-97702.18449623247</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-99989.40169623247</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-99537.89169623246</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-98558.44669623247</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-99593.06799623248</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-99568.06799623248</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-96883.06049623247</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-96869.06049623247</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-96978.18049623247</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-97342.00169623246</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-97340.09069623247</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-98160.41529623247</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-98003.53729623248</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-97968.88369623247</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-98278.10769623247</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-98308.10769623247</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-98372.62769623248</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-98372.62769623248</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-97664.02819623248</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-98290.54809623248</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-98290.54809623248</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-98055.59689623248</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-97839.44289623249</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-97566.72659623249</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-96610.28189623248</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 WTC ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-21452.6484</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-23114.4642</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-21816.638</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-21782.938</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-23175.8195</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-24118.8195</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-22105.724</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-22105.724</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-23806.0093</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-20273.0634</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-20273.0634</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-20159.7634</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-22032.7383</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-23141.1257</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-24489.5289</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-24526.1063</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-23800.1464</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-23993.4313</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-23993.4313</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-23988.6313</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-23254.0243</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-23254.0243</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-23236.3581</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-23270.1042</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-22906.1642</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-22819.4242</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-22783.7282</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-22877.9381</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-22984.19449999999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-24075.46589999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-24056.72439999999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-24174.00089999999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-23833.94779999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20729.02509999999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-26821.22509999999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4690.589199999991</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-6775.190099999991</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3064.582099999991</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-295.2272999999905</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1183.48610000001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>590.4861000000096</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2936.119503767502</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1881.119503767502</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-17118.8804962325</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-15718.8804962325</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-35718.88049623249</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-35541.01539623249</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-95789.66049623249</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-96319.61639623249</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-96354.0251962325</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-96459.0251962325</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-94240.2971962325</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-94240.2971962325</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-100421.6544962325</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-98465.19029623247</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-97702.18449623247</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-99802.83169623246</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-99539.67169623246</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-98558.44669623247</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-99230.62099623248</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-99568.06799623248</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-96883.06049623247</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-96869.06049623247</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-96978.18049623247</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-97342.00169623246</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-97340.09069623247</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-98160.41529623247</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-98003.53729623248</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-97968.88369623247</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-97967.44369623247</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-98278.10769623247</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-98308.10769623247</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-98372.62769623248</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-98372.62769623248</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-97664.02819623248</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-98290.54809623248</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-98290.54809623248</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-98055.59689623248</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-97688.7965962325</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-97566.72659623249</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-96610.28189623248</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-96610.28189623248</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
